--- a/Best practices.xlsx
+++ b/Best practices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Design patterns" sheetId="5" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="HTTP" sheetId="8" r:id="rId4"/>
     <sheet name="SQL" sheetId="9" r:id="rId5"/>
     <sheet name="Practices" sheetId="4" r:id="rId6"/>
+    <sheet name="Android" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="357">
   <si>
     <t>Cẩn thận khi load data vào ram để không bị tràn bộ nhớ:
 Ví dụ: query data từ database xong rồi tạo object tương ứng với mỗi row dữ liệu
@@ -1559,6 +1560,54 @@
   </si>
   <si>
     <t>SQL coding convention</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Like scope that object lives in.</t>
+  </si>
+  <si>
+    <t>Activity/Fragment life cycle</t>
+  </si>
+  <si>
+    <t>onCreate</t>
+  </si>
+  <si>
+    <t>Create and init member data only</t>
+  </si>
+  <si>
+    <t>onCreateView(Fragment)</t>
+  </si>
+  <si>
+    <t>bind view only</t>
+  </si>
+  <si>
+    <t>onstart</t>
+  </si>
+  <si>
+    <t>set adapter for listview</t>
+  </si>
+  <si>
+    <t>do some logic update stuff</t>
+  </si>
+  <si>
+    <t>onpause</t>
+  </si>
+  <si>
+    <t>save data</t>
+  </si>
+  <si>
+    <t>Setting screen</t>
+  </si>
+  <si>
+    <t>https://developer.android.com/guide/topics/ui/settings.html</t>
+  </si>
+  <si>
+    <t>Divide layout(drawable,etc) into sub folders</t>
+  </si>
+  <si>
+    <t>http://stackoverflow.com/questions/16577782/sub-folders-in-drawable-resource-folder</t>
   </si>
 </sst>
 </file>
@@ -1742,7 +1791,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1763,6 +1811,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2366,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -2383,34 +2432,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:7" s="6" customFormat="1" ht="120.75" thickBot="1">
       <c r="A3" s="7">
@@ -2422,10 +2471,10 @@
       <c r="C3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2485,11 +2534,11 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:7" s="6" customFormat="1" ht="43.5" thickBot="1">
       <c r="A10" s="7">
@@ -2591,11 +2640,11 @@
       </c>
     </row>
     <row r="19" spans="1:3" s="6" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
     </row>
     <row r="20" spans="1:3" s="6" customFormat="1" ht="43.5" thickBot="1">
       <c r="A20" s="7">
@@ -2667,7 +2716,7 @@
       <c r="A26" s="7">
         <v>22</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2741,11 +2790,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" s="6" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3" s="6" customFormat="1" ht="43.5" thickBot="1">
       <c r="A34" s="7">
@@ -2873,27 +2922,27 @@
   <cols>
     <col min="1" max="1" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.5703125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="78.140625" style="14"/>
+    <col min="3" max="3" width="78.140625" style="13"/>
     <col min="4" max="16384" width="78.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="43.5" thickBot="1">
       <c r="A3" s="7">
@@ -3028,11 +3077,11 @@
       </c>
     </row>
     <row r="15" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
     </row>
     <row r="16" spans="1:3" ht="72" thickBot="1">
       <c r="A16" s="7">
@@ -3167,11 +3216,11 @@
       </c>
     </row>
     <row r="28" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
     </row>
     <row r="29" spans="1:3" ht="29.25" thickBot="1">
       <c r="A29" s="7">
@@ -3405,11 +3454,11 @@
       </c>
     </row>
     <row r="50" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
     </row>
     <row r="51" spans="1:3" ht="15.75" thickBot="1">
       <c r="A51" s="7">
@@ -3522,11 +3571,11 @@
       </c>
     </row>
     <row r="61" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1">
       <c r="A62" s="7">
@@ -3600,7 +3649,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3629,7 +3678,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>291</v>
       </c>
     </row>
@@ -3650,7 +3699,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>286</v>
       </c>
       <c r="C8">
@@ -3800,7 +3849,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3904,7 +3953,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>230</v>
       </c>
     </row>
@@ -4119,7 +4168,7 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="16" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4150,85 +4199,85 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="19"/>
+      <c r="B5" s="18"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="19"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="19"/>
+      <c r="B7" s="18"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="19"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="19"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="19"/>
+      <c r="B11" s="18"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="19"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="19"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="19"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="19"/>
+      <c r="B15" s="18"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="19"/>
+      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="19"/>
+      <c r="B17" s="18"/>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="19"/>
+      <c r="B18" s="18"/>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="19"/>
+      <c r="B19" s="18"/>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="19"/>
+      <c r="B20" s="18"/>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>334</v>
       </c>
     </row>
@@ -4320,4 +4369,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="C3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="C5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="D6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="C7" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="D8" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="C9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="D10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="D11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="C12" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="D13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="C15" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>